--- a/Code/Results/Cases/Case_4_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.72631174128385</v>
+        <v>14.86382305527799</v>
       </c>
       <c r="C2">
-        <v>14.30003285979597</v>
+        <v>11.56520776152982</v>
       </c>
       <c r="D2">
-        <v>7.168830726202676</v>
+        <v>5.979087027223589</v>
       </c>
       <c r="E2">
-        <v>7.493817659889086</v>
+        <v>12.57996649746447</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.95485650055286</v>
+        <v>27.16832293086387</v>
       </c>
       <c r="H2">
-        <v>8.209961594997457</v>
+        <v>13.88820697996222</v>
       </c>
       <c r="I2">
-        <v>12.33336634348316</v>
+        <v>21.48495719688379</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.259674702498656</v>
+        <v>10.0083676588922</v>
       </c>
       <c r="M2">
-        <v>12.41577710184325</v>
+        <v>14.32865406225001</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.36638218593609</v>
+        <v>20.92838059598559</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.30031106679075</v>
+        <v>14.24410338228091</v>
       </c>
       <c r="C3">
-        <v>13.68244149511333</v>
+        <v>11.31158168539129</v>
       </c>
       <c r="D3">
-        <v>6.673880653579865</v>
+        <v>5.859132931411608</v>
       </c>
       <c r="E3">
-        <v>7.632947290807891</v>
+        <v>12.63219431836582</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.45941220774847</v>
+        <v>27.24827256104453</v>
       </c>
       <c r="H3">
-        <v>8.269326629680846</v>
+        <v>13.94667884802119</v>
       </c>
       <c r="I3">
-        <v>12.6525584081051</v>
+        <v>21.62763977056519</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.177707053271209</v>
+        <v>10.01707382128698</v>
       </c>
       <c r="M3">
-        <v>11.71192431955553</v>
+        <v>14.18703841361733</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.3361800656833</v>
+        <v>21.02103435551991</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.37287377364596</v>
+        <v>13.84980895604515</v>
       </c>
       <c r="C4">
-        <v>13.28900310380124</v>
+        <v>11.15228360332542</v>
       </c>
       <c r="D4">
-        <v>6.35284913354787</v>
+        <v>5.785990792824317</v>
       </c>
       <c r="E4">
-        <v>7.721099729735641</v>
+        <v>12.66595129450744</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.18578379810471</v>
+        <v>27.30925428398834</v>
       </c>
       <c r="H4">
-        <v>8.313295360946487</v>
+        <v>13.98541053627015</v>
       </c>
       <c r="I4">
-        <v>12.86102493425445</v>
+        <v>21.72043853021644</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.129842642817987</v>
+        <v>10.02383823876836</v>
       </c>
       <c r="M4">
-        <v>11.30147523605761</v>
+        <v>14.10081033826655</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.33490712547752</v>
+        <v>21.08380136186442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.98184507990579</v>
+        <v>13.68587244037144</v>
       </c>
       <c r="C5">
-        <v>13.12524508944593</v>
+        <v>11.08653630134441</v>
       </c>
       <c r="D5">
-        <v>6.220945919242037</v>
+        <v>5.756359565720156</v>
       </c>
       <c r="E5">
-        <v>7.757719910210184</v>
+        <v>12.68013347566257</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.08192714362943</v>
+        <v>27.33707600681361</v>
       </c>
       <c r="H5">
-        <v>8.333020568227907</v>
+        <v>14.00190481248795</v>
       </c>
       <c r="I5">
-        <v>12.9489745823241</v>
+        <v>21.75956034960362</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.110964771459468</v>
+        <v>10.02695200507387</v>
       </c>
       <c r="M5">
-        <v>11.13041021149471</v>
+        <v>14.06588427980608</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.33854709709076</v>
+        <v>21.11085195044968</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.91612316887595</v>
+        <v>13.65846071780506</v>
       </c>
       <c r="C6">
-        <v>13.09785098784334</v>
+        <v>11.0755707487081</v>
       </c>
       <c r="D6">
-        <v>6.2016392655606</v>
+        <v>5.751451248334364</v>
       </c>
       <c r="E6">
-        <v>7.763843118411843</v>
+        <v>12.68251417868212</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.06514171988864</v>
+        <v>27.34187463742103</v>
       </c>
       <c r="H6">
-        <v>8.336402729517465</v>
+        <v>14.00468658295514</v>
       </c>
       <c r="I6">
-        <v>12.96375583629952</v>
+        <v>21.76613535961803</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.107868198798101</v>
+        <v>10.02749062986211</v>
       </c>
       <c r="M6">
-        <v>11.10178061413333</v>
+        <v>14.06009855479556</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.33939717437195</v>
+        <v>21.11543245833855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.36765328543529</v>
+        <v>13.84761094927877</v>
       </c>
       <c r="C7">
-        <v>13.28680827184106</v>
+        <v>11.15140019165575</v>
       </c>
       <c r="D7">
-        <v>6.351043892987379</v>
+        <v>5.785590406198023</v>
       </c>
       <c r="E7">
-        <v>7.721590763442533</v>
+        <v>12.66614083407898</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.18435226716052</v>
+        <v>27.30961749406305</v>
       </c>
       <c r="H7">
-        <v>8.313554170549942</v>
+        <v>13.9856301068582</v>
       </c>
       <c r="I7">
-        <v>12.86219908887862</v>
+        <v>21.7209608541937</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.129585500293586</v>
+        <v>10.02387878523995</v>
       </c>
       <c r="M7">
-        <v>11.29918335734716</v>
+        <v>14.10033841261657</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.33493962524515</v>
+        <v>21.08416022054014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.24536054838644</v>
+        <v>14.65312101179831</v>
       </c>
       <c r="C8">
-        <v>14.09012500071533</v>
+        <v>11.47853700326698</v>
       </c>
       <c r="D8">
-        <v>7.001707478420325</v>
+        <v>5.937648685232857</v>
       </c>
       <c r="E8">
-        <v>7.541230968987877</v>
+        <v>12.59762488025979</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.77767173277055</v>
+        <v>27.19341028107136</v>
       </c>
       <c r="H8">
-        <v>8.228819416063736</v>
+        <v>13.90778031538083</v>
       </c>
       <c r="I8">
-        <v>12.44074295521397</v>
+        <v>21.53307686628265</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.230905794419087</v>
+        <v>10.01107535651261</v>
       </c>
       <c r="M8">
-        <v>12.15938743255598</v>
+        <v>14.27969295246636</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.35227522676242</v>
+        <v>20.95910461123263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.51852095788642</v>
+        <v>16.11553629522517</v>
       </c>
       <c r="C9">
-        <v>15.54701976393349</v>
+        <v>12.08900767842801</v>
       </c>
       <c r="D9">
-        <v>8.143240692290474</v>
+        <v>6.237877307633465</v>
       </c>
       <c r="E9">
-        <v>7.208617778847234</v>
+        <v>12.47660830236519</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.1833365685707</v>
+        <v>27.06066062287129</v>
       </c>
       <c r="H9">
-        <v>8.126168021334875</v>
+        <v>13.7776035157371</v>
       </c>
       <c r="I9">
-        <v>11.72065439124246</v>
+        <v>21.20581551893623</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.448762651504223</v>
+        <v>9.997204081702511</v>
       </c>
       <c r="M9">
-        <v>13.91102679163075</v>
+        <v>14.63580828443741</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.53110919518635</v>
+        <v>20.760738503309</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.67787360411313</v>
+        <v>17.1097149052258</v>
       </c>
       <c r="C10">
-        <v>16.53937581355289</v>
+        <v>12.51522616462274</v>
       </c>
       <c r="D10">
-        <v>8.902122846683381</v>
+        <v>6.457100170105859</v>
       </c>
       <c r="E10">
-        <v>6.976273251666906</v>
+        <v>12.3957508357594</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.36070862856294</v>
+        <v>27.02204386977153</v>
       </c>
       <c r="H10">
-        <v>8.094953047843774</v>
+        <v>13.69571705936493</v>
       </c>
       <c r="I10">
-        <v>11.26842656907875</v>
+        <v>20.99046645205752</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.619954838195992</v>
+        <v>9.993831292148053</v>
       </c>
       <c r="M10">
-        <v>15.07415353520222</v>
+        <v>14.8983194868867</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.76067667698795</v>
+        <v>20.64388373671845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6078625465418</v>
+        <v>17.54311786945895</v>
       </c>
       <c r="C11">
-        <v>16.9730158576411</v>
+        <v>12.70364614533142</v>
       </c>
       <c r="D11">
-        <v>9.230511645180892</v>
+        <v>6.556018421101848</v>
       </c>
       <c r="E11">
-        <v>6.872995452067006</v>
+        <v>12.36069819903405</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.92660253350954</v>
+        <v>27.01741996282442</v>
       </c>
       <c r="H11">
-        <v>8.091579799968612</v>
+        <v>13.66146151960847</v>
       </c>
       <c r="I11">
-        <v>11.08259875453991</v>
+        <v>20.89794568240518</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.700128177302135</v>
+        <v>9.993769296153935</v>
       </c>
       <c r="M11">
-        <v>15.57665860876503</v>
+        <v>15.01754923186129</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.88829049898061</v>
+        <v>20.59705979915659</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.95258337781187</v>
+        <v>17.70442782804727</v>
       </c>
       <c r="C12">
-        <v>17.13461412531829</v>
+        <v>12.7741613850164</v>
       </c>
       <c r="D12">
-        <v>9.352484366438816</v>
+        <v>6.593319756678811</v>
       </c>
       <c r="E12">
-        <v>6.834218125501637</v>
+        <v>12.34767213055801</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.14513884280405</v>
+        <v>27.01753894126538</v>
       </c>
       <c r="H12">
-        <v>8.09196325479251</v>
+        <v>13.64892141788191</v>
       </c>
       <c r="I12">
-        <v>11.01540915968176</v>
+        <v>20.86369345554918</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.730807577134263</v>
+        <v>9.993956689001644</v>
       </c>
       <c r="M12">
-        <v>15.76314618200601</v>
+        <v>15.06263963465854</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.94008156010129</v>
+        <v>20.58024466631055</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.87867147050821</v>
+        <v>17.66981325092717</v>
       </c>
       <c r="C13">
-        <v>17.09992792192084</v>
+        <v>12.75901255543944</v>
       </c>
       <c r="D13">
-        <v>9.326320612292067</v>
+        <v>6.585293847448115</v>
       </c>
       <c r="E13">
-        <v>6.84255502334286</v>
+        <v>12.35046653330634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.09788614269836</v>
+        <v>27.01743003746513</v>
       </c>
       <c r="H13">
-        <v>8.091805132710268</v>
+        <v>13.65160293523403</v>
       </c>
       <c r="I13">
-        <v>11.0297327068849</v>
+        <v>20.87103543133805</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.724186176037134</v>
+        <v>9.993906966481934</v>
       </c>
       <c r="M13">
-        <v>15.72315128885572</v>
+        <v>15.05293175640011</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.92877128865781</v>
+        <v>20.58382528135053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63637170881464</v>
+        <v>17.55644577421667</v>
       </c>
       <c r="C14">
-        <v>16.98636324930353</v>
+        <v>12.70946448405084</v>
       </c>
       <c r="D14">
-        <v>9.240593902717242</v>
+        <v>6.559090593395268</v>
       </c>
       <c r="E14">
-        <v>6.86979866315951</v>
+        <v>12.35962158069608</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.94449722252133</v>
+        <v>27.01739223328018</v>
       </c>
       <c r="H14">
-        <v>8.091577460281377</v>
+        <v>13.66042117941338</v>
       </c>
       <c r="I14">
-        <v>11.07700532951882</v>
+        <v>20.89511202631203</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.702645846827066</v>
+        <v>9.993780492080472</v>
       </c>
       <c r="M14">
-        <v>15.59207704683719</v>
+        <v>15.02126021834584</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.89248119592829</v>
+        <v>20.59565801899744</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.4869887867028</v>
+        <v>17.48663624973829</v>
       </c>
       <c r="C15">
-        <v>16.91646010692931</v>
+        <v>12.67900469069407</v>
       </c>
       <c r="D15">
-        <v>9.187774933218439</v>
+        <v>6.54301874552497</v>
       </c>
       <c r="E15">
-        <v>6.88652889737312</v>
+        <v>12.36526152319322</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.85109150990624</v>
+        <v>27.01761281771062</v>
       </c>
       <c r="H15">
-        <v>8.091657406988791</v>
+        <v>13.66587886343938</v>
       </c>
       <c r="I15">
-        <v>11.10638540835814</v>
+        <v>20.90996167920535</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.689493069061259</v>
+        <v>9.99373045775185</v>
       </c>
       <c r="M15">
-        <v>15.51129625655655</v>
+        <v>15.00185181250826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.87070760903701</v>
+        <v>20.60302536589439</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.61605044763445</v>
+        <v>17.08100278232849</v>
       </c>
       <c r="C16">
-        <v>16.51067355301475</v>
+        <v>12.50279816010508</v>
       </c>
       <c r="D16">
-        <v>8.880326510782677</v>
+        <v>6.45061584710267</v>
       </c>
       <c r="E16">
-        <v>6.983069999991851</v>
+        <v>12.39807631867447</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.32432625270373</v>
+        <v>27.02260730500949</v>
       </c>
       <c r="H16">
-        <v>8.095400206609266</v>
+        <v>13.69801609636537</v>
       </c>
       <c r="I16">
-        <v>11.280997445562</v>
+        <v>20.99662248170156</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.614760609056428</v>
+        <v>9.993864899809532</v>
       </c>
       <c r="M16">
-        <v>15.04078032450751</v>
+        <v>14.89052098990269</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.75281498049367</v>
+        <v>20.64707169988687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06841292101439</v>
+        <v>16.82725530891032</v>
       </c>
       <c r="C17">
-        <v>16.25713793638975</v>
+        <v>12.39326443223025</v>
       </c>
       <c r="D17">
-        <v>8.687433588327464</v>
+        <v>6.393693157953982</v>
       </c>
       <c r="E17">
-        <v>7.042902871577421</v>
+        <v>12.41864936745757</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.00885409682863</v>
+        <v>27.02899329621687</v>
       </c>
       <c r="H17">
-        <v>8.100542678951669</v>
+        <v>13.71849908838471</v>
       </c>
       <c r="I17">
-        <v>11.39342502145115</v>
+        <v>21.05118054851009</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.569495166834257</v>
+        <v>9.994323892163656</v>
       </c>
       <c r="M17">
-        <v>14.74533588644212</v>
+        <v>14.82215188264693</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.68652821833031</v>
+        <v>20.67571876692049</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.74849766414915</v>
+        <v>16.67953672993436</v>
       </c>
       <c r="C18">
-        <v>16.10963898072689</v>
+        <v>12.32975144395649</v>
       </c>
       <c r="D18">
-        <v>8.574900080143234</v>
+        <v>6.360879041062486</v>
       </c>
       <c r="E18">
-        <v>7.077545640471479</v>
+        <v>12.43064532854422</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.83026211884894</v>
+        <v>27.0338842402301</v>
       </c>
       <c r="H18">
-        <v>8.104513202517269</v>
+        <v>13.73056220613667</v>
       </c>
       <c r="I18">
-        <v>11.45994125465864</v>
+        <v>21.08307313731129</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.543676530201157</v>
+        <v>9.99472652839569</v>
       </c>
       <c r="M18">
-        <v>14.5728977350126</v>
+        <v>14.78281199849002</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.65057680453008</v>
+        <v>20.69279167299235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.6393310929878</v>
+        <v>16.62922107963503</v>
       </c>
       <c r="C19">
-        <v>16.05941307847</v>
+        <v>12.30816063864836</v>
       </c>
       <c r="D19">
-        <v>8.536524497794559</v>
+        <v>6.349757367856512</v>
       </c>
       <c r="E19">
-        <v>7.089314797439139</v>
+        <v>12.43473496593666</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.7702884391412</v>
+        <v>27.03574909669079</v>
       </c>
       <c r="H19">
-        <v>8.10602834706998</v>
+        <v>13.73469494541829</v>
       </c>
       <c r="I19">
-        <v>11.48277136337367</v>
+        <v>21.09395937553203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.534972365368376</v>
+        <v>9.994886689385426</v>
       </c>
       <c r="M19">
-        <v>14.51408198233232</v>
+        <v>14.76949047077357</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.63877355034116</v>
+        <v>20.69867444342655</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.12721942431873</v>
+        <v>16.85445108969325</v>
       </c>
       <c r="C20">
-        <v>16.2843007133619</v>
+        <v>12.40497784968615</v>
       </c>
       <c r="D20">
-        <v>8.708131297207832</v>
+        <v>6.399760604805592</v>
       </c>
       <c r="E20">
-        <v>7.036510024975129</v>
+        <v>12.41644248135278</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.04214153944106</v>
+        <v>27.02818737813704</v>
       </c>
       <c r="H20">
-        <v>8.099889694498883</v>
+        <v>13.71628946168846</v>
       </c>
       <c r="I20">
-        <v>11.38126318095618</v>
+        <v>21.04531973007209</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.574291387562514</v>
+        <v>9.99426068920708</v>
       </c>
       <c r="M20">
-        <v>14.77704567695778</v>
+        <v>14.82943175965134</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.693358448353</v>
+        <v>20.67260752854838</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.70774246886536</v>
+        <v>17.58982153694969</v>
       </c>
       <c r="C21">
-        <v>17.01979119235128</v>
+        <v>12.72404099471121</v>
       </c>
       <c r="D21">
-        <v>9.265838214371232</v>
+        <v>6.56679169480859</v>
       </c>
       <c r="E21">
-        <v>6.861787672731586</v>
+        <v>12.35692581051017</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.98943696458802</v>
+        <v>27.01735252982189</v>
       </c>
       <c r="H21">
-        <v>8.091598422197114</v>
+        <v>13.65781932200749</v>
       </c>
       <c r="I21">
-        <v>11.06303117554441</v>
+        <v>20.8880188795294</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.70896417612578</v>
+        <v>9.993811924897473</v>
       </c>
       <c r="M21">
-        <v>15.63067963082863</v>
+        <v>15.03056478141059</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.90304540695089</v>
+        <v>20.59215755399166</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.69734424921118</v>
+        <v>18.05401218261721</v>
       </c>
       <c r="C22">
-        <v>17.48523748367879</v>
+        <v>12.92767832264986</v>
       </c>
       <c r="D22">
-        <v>9.616473055504779</v>
+        <v>6.675024620181423</v>
       </c>
       <c r="E22">
-        <v>6.74952217111211</v>
+        <v>12.31947092923945</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>24.6332400564545</v>
+        <v>27.02117313856916</v>
       </c>
       <c r="H22">
-        <v>8.09590944901341</v>
+        <v>13.62212263366064</v>
       </c>
       <c r="I22">
-        <v>10.87375882834558</v>
+        <v>20.78978024996395</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.798838350934192</v>
+        <v>9.994747288433189</v>
       </c>
       <c r="M22">
-        <v>16.16644423363745</v>
+        <v>15.16165651403867</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.06034507318212</v>
+        <v>20.54492074840686</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17311638094533</v>
+        <v>17.80779592250748</v>
       </c>
       <c r="C23">
-        <v>17.23822878143238</v>
+        <v>12.8194557532185</v>
       </c>
       <c r="D23">
-        <v>9.430587353487313</v>
+        <v>6.617356772000178</v>
       </c>
       <c r="E23">
-        <v>6.809269629466468</v>
+        <v>12.33932967203756</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.28740764411014</v>
+        <v>27.01813424170082</v>
       </c>
       <c r="H23">
-        <v>8.092683550064537</v>
+        <v>13.64094398201899</v>
       </c>
       <c r="I23">
-        <v>10.97294848692706</v>
+        <v>20.84179393865952</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.750704245243281</v>
+        <v>9.994135946087431</v>
       </c>
       <c r="M23">
-        <v>15.88251190322264</v>
+        <v>15.09173389076072</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.97449744710401</v>
+        <v>20.56964144333812</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.10064880541251</v>
+        <v>16.84216158756414</v>
       </c>
       <c r="C24">
-        <v>16.27202583098277</v>
+        <v>12.39968389374963</v>
       </c>
       <c r="D24">
-        <v>8.698778964230199</v>
+        <v>6.397017784646511</v>
       </c>
       <c r="E24">
-        <v>7.039399469564435</v>
+        <v>12.41743969041559</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.02708362774327</v>
+        <v>27.02854793556544</v>
       </c>
       <c r="H24">
-        <v>8.100181758097117</v>
+        <v>13.71728753945575</v>
       </c>
       <c r="I24">
-        <v>11.38675571646483</v>
+        <v>21.0479677663187</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.572122376595717</v>
+        <v>9.994288830992563</v>
       </c>
       <c r="M24">
-        <v>14.76271772867844</v>
+        <v>14.82614062935999</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.69026379075144</v>
+        <v>20.67401224047697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67644774596908</v>
+        <v>15.73345449636791</v>
       </c>
       <c r="C25">
-        <v>15.16624365499444</v>
+        <v>11.92754522849003</v>
       </c>
       <c r="D25">
-        <v>7.848598436685203</v>
+        <v>6.156713297433891</v>
       </c>
       <c r="E25">
-        <v>7.29642494824942</v>
+        <v>12.50792642438084</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.77733738088217</v>
+        <v>27.08628510623515</v>
       </c>
       <c r="H25">
-        <v>8.146582783948613</v>
+        <v>13.8104077295232</v>
       </c>
       <c r="I25">
-        <v>11.90294089410109</v>
+        <v>21.28994174822689</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.38782943929538</v>
+        <v>9.999756655448856</v>
       </c>
       <c r="M25">
-        <v>13.45896357010787</v>
+        <v>14.53918535950729</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.46615996515564</v>
+        <v>20.80935142295522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_97/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86382305527799</v>
+        <v>21.72631174128386</v>
       </c>
       <c r="C2">
-        <v>11.56520776152982</v>
+        <v>14.30003285979602</v>
       </c>
       <c r="D2">
-        <v>5.979087027223589</v>
+        <v>7.16883072620262</v>
       </c>
       <c r="E2">
-        <v>12.57996649746447</v>
+        <v>7.493817659889154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.16832293086387</v>
+        <v>20.95485650055279</v>
       </c>
       <c r="H2">
-        <v>13.88820697996222</v>
+        <v>8.209961594997498</v>
       </c>
       <c r="I2">
-        <v>21.48495719688379</v>
+        <v>12.33336634348315</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.0083676588922</v>
+        <v>6.259674702498708</v>
       </c>
       <c r="M2">
-        <v>14.32865406225001</v>
+        <v>12.41577710184324</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.92838059598559</v>
+        <v>13.36638218593608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.24410338228091</v>
+        <v>20.30031106679076</v>
       </c>
       <c r="C3">
-        <v>11.31158168539129</v>
+        <v>13.68244149511331</v>
       </c>
       <c r="D3">
-        <v>5.859132931411608</v>
+        <v>6.673880653579871</v>
       </c>
       <c r="E3">
-        <v>12.63219431836582</v>
+        <v>7.632947290807891</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.24827256104453</v>
+        <v>20.45941220774841</v>
       </c>
       <c r="H3">
-        <v>13.94667884802119</v>
+        <v>8.269326629680741</v>
       </c>
       <c r="I3">
-        <v>21.62763977056519</v>
+        <v>12.65255840810495</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.01707382128698</v>
+        <v>6.177707053271233</v>
       </c>
       <c r="M3">
-        <v>14.18703841361733</v>
+        <v>11.71192431955553</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.02103435551991</v>
+        <v>13.3361800656832</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.84980895604515</v>
+        <v>19.37287377364597</v>
       </c>
       <c r="C4">
-        <v>11.15228360332542</v>
+        <v>13.2890031038014</v>
       </c>
       <c r="D4">
-        <v>5.785990792824317</v>
+        <v>6.352849133547833</v>
       </c>
       <c r="E4">
-        <v>12.66595129450744</v>
+        <v>7.721099729735776</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>27.30925428398834</v>
+        <v>20.18578379810459</v>
       </c>
       <c r="H4">
-        <v>13.98541053627015</v>
+        <v>8.31329536094648</v>
       </c>
       <c r="I4">
-        <v>21.72043853021644</v>
+        <v>12.86102493425442</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.02383823876836</v>
+        <v>6.129842642818011</v>
       </c>
       <c r="M4">
-        <v>14.10081033826655</v>
+        <v>11.3014752360576</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.08380136186442</v>
+        <v>13.3349071254774</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.68587244037144</v>
+        <v>18.9818450799058</v>
       </c>
       <c r="C5">
-        <v>11.08653630134441</v>
+        <v>13.12524508944574</v>
       </c>
       <c r="D5">
-        <v>5.756359565720156</v>
+        <v>6.220945919242095</v>
       </c>
       <c r="E5">
-        <v>12.68013347566257</v>
+        <v>7.757719910210116</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>27.33707600681361</v>
+        <v>20.08192714362957</v>
       </c>
       <c r="H5">
-        <v>14.00190481248795</v>
+        <v>8.333020568227917</v>
       </c>
       <c r="I5">
-        <v>21.75956034960362</v>
+        <v>12.94897458232406</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.02695200507387</v>
+        <v>6.110964771459463</v>
       </c>
       <c r="M5">
-        <v>14.06588427980608</v>
+        <v>11.1304102114947</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.11085195044968</v>
+        <v>13.33854709709086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.65846071780506</v>
+        <v>18.91612316887596</v>
       </c>
       <c r="C6">
-        <v>11.0755707487081</v>
+        <v>13.09785098784321</v>
       </c>
       <c r="D6">
-        <v>5.751451248334364</v>
+        <v>6.201639265560581</v>
       </c>
       <c r="E6">
-        <v>12.68251417868212</v>
+        <v>7.763843118411777</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>27.34187463742103</v>
+        <v>20.06514171988868</v>
       </c>
       <c r="H6">
-        <v>14.00468658295514</v>
+        <v>8.336402729517467</v>
       </c>
       <c r="I6">
-        <v>21.76613535961803</v>
+        <v>12.96375583629952</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.02749062986211</v>
+        <v>6.107868198798094</v>
       </c>
       <c r="M6">
-        <v>14.06009855479556</v>
+        <v>11.10178061413334</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.11543245833855</v>
+        <v>13.33939717437199</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.84761094927877</v>
+        <v>19.36765328543538</v>
       </c>
       <c r="C7">
-        <v>11.15140019165575</v>
+        <v>13.28680827184093</v>
       </c>
       <c r="D7">
-        <v>5.785590406198023</v>
+        <v>6.351043892987394</v>
       </c>
       <c r="E7">
-        <v>12.66614083407898</v>
+        <v>7.721590763442602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.30961749406305</v>
+        <v>20.18435226716031</v>
       </c>
       <c r="H7">
-        <v>13.9856301068582</v>
+        <v>8.313554170549903</v>
       </c>
       <c r="I7">
-        <v>21.7209608541937</v>
+        <v>12.86219908887844</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.02387878523995</v>
+        <v>6.12958550029367</v>
       </c>
       <c r="M7">
-        <v>14.10033841261657</v>
+        <v>11.29918335734714</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.08416022054014</v>
+        <v>13.33493962524503</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.65312101179831</v>
+        <v>21.24536054838646</v>
       </c>
       <c r="C8">
-        <v>11.47853700326698</v>
+        <v>14.09012500071541</v>
       </c>
       <c r="D8">
-        <v>5.937648685232857</v>
+        <v>7.001707478420388</v>
       </c>
       <c r="E8">
-        <v>12.59762488025979</v>
+        <v>7.541230968987948</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.19341028107136</v>
+        <v>20.77767173277039</v>
       </c>
       <c r="H8">
-        <v>13.90778031538083</v>
+        <v>8.228819416063633</v>
       </c>
       <c r="I8">
-        <v>21.53307686628265</v>
+        <v>12.44074295521381</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.01107535651261</v>
+        <v>6.230905794419083</v>
       </c>
       <c r="M8">
-        <v>14.27969295246636</v>
+        <v>12.15938743255601</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.95910461123263</v>
+        <v>13.35227522676226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11553629522517</v>
+        <v>24.51852095788643</v>
       </c>
       <c r="C9">
-        <v>12.08900767842801</v>
+        <v>15.54701976393363</v>
       </c>
       <c r="D9">
-        <v>6.237877307633465</v>
+        <v>8.143240692290481</v>
       </c>
       <c r="E9">
-        <v>12.47660830236519</v>
+        <v>7.208617778847234</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.06066062287129</v>
+        <v>22.18333656857066</v>
       </c>
       <c r="H9">
-        <v>13.7776035157371</v>
+        <v>8.126168021334859</v>
       </c>
       <c r="I9">
-        <v>21.20581551893623</v>
+        <v>11.72065439124248</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.997204081702511</v>
+        <v>6.448762651504174</v>
       </c>
       <c r="M9">
-        <v>14.63580828443741</v>
+        <v>13.91102679163076</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.760738503309</v>
+        <v>13.53110919518633</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.1097149052258</v>
+        <v>26.67787360411313</v>
       </c>
       <c r="C10">
-        <v>12.51522616462274</v>
+        <v>16.53937581355279</v>
       </c>
       <c r="D10">
-        <v>6.457100170105859</v>
+        <v>8.902122846683417</v>
       </c>
       <c r="E10">
-        <v>12.3957508357594</v>
+        <v>6.976273251666839</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.02204386977153</v>
+        <v>23.36070862856295</v>
       </c>
       <c r="H10">
-        <v>13.69571705936493</v>
+        <v>8.094953047843774</v>
       </c>
       <c r="I10">
-        <v>20.99046645205752</v>
+        <v>11.26842656907871</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.993831292148053</v>
+        <v>6.619954838195977</v>
       </c>
       <c r="M10">
-        <v>14.8983194868867</v>
+        <v>15.07415353520222</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.64388373671845</v>
+        <v>13.76067667698796</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.54311786945895</v>
+        <v>27.60786254654181</v>
       </c>
       <c r="C11">
-        <v>12.70364614533142</v>
+        <v>16.97301585764096</v>
       </c>
       <c r="D11">
-        <v>6.556018421101848</v>
+        <v>9.230511645180929</v>
       </c>
       <c r="E11">
-        <v>12.36069819903405</v>
+        <v>6.872995452066939</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.01741996282442</v>
+        <v>23.92660253350958</v>
       </c>
       <c r="H11">
-        <v>13.66146151960847</v>
+        <v>8.091579799968713</v>
       </c>
       <c r="I11">
-        <v>20.89794568240518</v>
+        <v>11.08259875454001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.993769296153935</v>
+        <v>6.700128177302078</v>
       </c>
       <c r="M11">
-        <v>15.01754923186129</v>
+        <v>15.57665860876503</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.59705979915659</v>
+        <v>13.88829049898071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.70442782804727</v>
+        <v>27.95258337781187</v>
       </c>
       <c r="C12">
-        <v>12.7741613850164</v>
+        <v>17.13461412531835</v>
       </c>
       <c r="D12">
-        <v>6.593319756678811</v>
+        <v>9.352484366438796</v>
       </c>
       <c r="E12">
-        <v>12.34767213055801</v>
+        <v>6.834218125501702</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.01753894126538</v>
+        <v>24.14513884280413</v>
       </c>
       <c r="H12">
-        <v>13.64892141788191</v>
+        <v>8.091963254792562</v>
       </c>
       <c r="I12">
-        <v>20.86369345554918</v>
+        <v>11.01540915968182</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.993956689001644</v>
+        <v>6.730807577134307</v>
       </c>
       <c r="M12">
-        <v>15.06263963465854</v>
+        <v>15.763146182006</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.58024466631055</v>
+        <v>13.94008156010138</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.66981325092717</v>
+        <v>27.87867147050818</v>
       </c>
       <c r="C13">
-        <v>12.75901255543944</v>
+        <v>17.09992792192083</v>
       </c>
       <c r="D13">
-        <v>6.585293847448115</v>
+        <v>9.326320612292022</v>
       </c>
       <c r="E13">
-        <v>12.35046653330634</v>
+        <v>6.842555023342794</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.01743003746513</v>
+        <v>24.09788614269839</v>
       </c>
       <c r="H13">
-        <v>13.65160293523403</v>
+        <v>8.09180513271026</v>
       </c>
       <c r="I13">
-        <v>20.87103543133805</v>
+        <v>11.02973270688492</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.993906966481934</v>
+        <v>6.724186176037096</v>
       </c>
       <c r="M13">
-        <v>15.05293175640011</v>
+        <v>15.72315128885572</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.58382528135053</v>
+        <v>13.92877128865783</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55644577421667</v>
+        <v>27.63637170881465</v>
       </c>
       <c r="C14">
-        <v>12.70946448405084</v>
+        <v>16.98636324930355</v>
       </c>
       <c r="D14">
-        <v>6.559090593395268</v>
+        <v>9.240593902717206</v>
       </c>
       <c r="E14">
-        <v>12.35962158069608</v>
+        <v>6.869798663159576</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.01739223328018</v>
+        <v>23.94449722252132</v>
       </c>
       <c r="H14">
-        <v>13.66042117941338</v>
+        <v>8.091577460281338</v>
       </c>
       <c r="I14">
-        <v>20.89511202631203</v>
+        <v>11.07700532951878</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.993780492080472</v>
+        <v>6.702645846827116</v>
       </c>
       <c r="M14">
-        <v>15.02126021834584</v>
+        <v>15.59207704683718</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.59565801899744</v>
+        <v>13.89248119592826</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.48663624973829</v>
+        <v>27.48698878670284</v>
       </c>
       <c r="C15">
-        <v>12.67900469069407</v>
+        <v>16.91646010692925</v>
       </c>
       <c r="D15">
-        <v>6.54301874552497</v>
+        <v>9.187774933218501</v>
       </c>
       <c r="E15">
-        <v>12.36526152319322</v>
+        <v>6.886528897372919</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.01761281771062</v>
+        <v>23.85109150990626</v>
       </c>
       <c r="H15">
-        <v>13.66587886343938</v>
+        <v>8.091657406988746</v>
       </c>
       <c r="I15">
-        <v>20.90996167920535</v>
+        <v>11.10638540835801</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.99373045775185</v>
+        <v>6.689493069061224</v>
       </c>
       <c r="M15">
-        <v>15.00185181250826</v>
+        <v>15.51129625655661</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.60302536589439</v>
+        <v>13.87070760903697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08100278232849</v>
+        <v>26.61605044763447</v>
       </c>
       <c r="C16">
-        <v>12.50279816010508</v>
+        <v>16.51067355301464</v>
       </c>
       <c r="D16">
-        <v>6.45061584710267</v>
+        <v>8.880326510782625</v>
       </c>
       <c r="E16">
-        <v>12.39807631867447</v>
+        <v>6.983069999991716</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.02260730500949</v>
+        <v>23.32432625270382</v>
       </c>
       <c r="H16">
-        <v>13.69801609636537</v>
+        <v>8.0954002066093</v>
       </c>
       <c r="I16">
-        <v>20.99662248170156</v>
+        <v>11.28099744556199</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.993864899809532</v>
+        <v>6.614760609056428</v>
       </c>
       <c r="M16">
-        <v>14.89052098990269</v>
+        <v>15.04078032450753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.64707169988687</v>
+        <v>13.75281498049372</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.82725530891032</v>
+        <v>26.06841292101441</v>
       </c>
       <c r="C17">
-        <v>12.39326443223025</v>
+        <v>16.25713793638962</v>
       </c>
       <c r="D17">
-        <v>6.393693157953982</v>
+        <v>8.687433588327609</v>
       </c>
       <c r="E17">
-        <v>12.41864936745757</v>
+        <v>7.042902871577422</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.02899329621687</v>
+        <v>23.00885409682866</v>
       </c>
       <c r="H17">
-        <v>13.71849908838471</v>
+        <v>8.100542678951665</v>
       </c>
       <c r="I17">
-        <v>21.05118054851009</v>
+        <v>11.3934250214511</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.994323892163656</v>
+        <v>6.569495166834269</v>
       </c>
       <c r="M17">
-        <v>14.82215188264693</v>
+        <v>14.74533588644211</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.67571876692049</v>
+        <v>13.68652821833031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.67953672993436</v>
+        <v>25.74849766414913</v>
       </c>
       <c r="C18">
-        <v>12.32975144395649</v>
+        <v>16.10963898072692</v>
       </c>
       <c r="D18">
-        <v>6.360879041062486</v>
+        <v>8.57490008014323</v>
       </c>
       <c r="E18">
-        <v>12.43064532854422</v>
+        <v>7.077545640471547</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.0338842402301</v>
+        <v>22.83026211884899</v>
       </c>
       <c r="H18">
-        <v>13.73056220613667</v>
+        <v>8.104513202517232</v>
       </c>
       <c r="I18">
-        <v>21.08307313731129</v>
+        <v>11.45994125465864</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.99472652839569</v>
+        <v>6.543676530201149</v>
       </c>
       <c r="M18">
-        <v>14.78281199849002</v>
+        <v>14.5728977350126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.69279167299235</v>
+        <v>13.65057680453006</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.62922107963503</v>
+        <v>25.63933109298782</v>
       </c>
       <c r="C19">
-        <v>12.30816063864836</v>
+        <v>16.05941307846969</v>
       </c>
       <c r="D19">
-        <v>6.349757367856512</v>
+        <v>8.536524497794572</v>
       </c>
       <c r="E19">
-        <v>12.43473496593666</v>
+        <v>7.089314797439206</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.03574909669079</v>
+        <v>22.7702884391414</v>
       </c>
       <c r="H19">
-        <v>13.73469494541829</v>
+        <v>8.106028347069991</v>
       </c>
       <c r="I19">
-        <v>21.09395937553203</v>
+        <v>11.48277136337377</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.994886689385426</v>
+        <v>6.534972365368411</v>
       </c>
       <c r="M19">
-        <v>14.76949047077357</v>
+        <v>14.51408198233229</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.69867444342655</v>
+        <v>13.63877355034127</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.85445108969325</v>
+        <v>26.12721942431867</v>
       </c>
       <c r="C20">
-        <v>12.40497784968615</v>
+        <v>16.28430071336176</v>
       </c>
       <c r="D20">
-        <v>6.399760604805592</v>
+        <v>8.708131297207892</v>
       </c>
       <c r="E20">
-        <v>12.41644248135278</v>
+        <v>7.036510024975263</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.02818737813704</v>
+        <v>23.04214153944121</v>
       </c>
       <c r="H20">
-        <v>13.71628946168846</v>
+        <v>8.099889694498987</v>
       </c>
       <c r="I20">
-        <v>21.04531973007209</v>
+        <v>11.38126318095635</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.99426068920708</v>
+        <v>6.574291387562618</v>
       </c>
       <c r="M20">
-        <v>14.82943175965134</v>
+        <v>14.77704567695773</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.67260752854838</v>
+        <v>13.69335844835314</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.58982153694969</v>
+        <v>27.70774246886534</v>
       </c>
       <c r="C21">
-        <v>12.72404099471121</v>
+        <v>17.01979119235118</v>
       </c>
       <c r="D21">
-        <v>6.56679169480859</v>
+        <v>9.26583821437116</v>
       </c>
       <c r="E21">
-        <v>12.35692581051017</v>
+        <v>6.861787672731584</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.01735252982189</v>
+        <v>23.98943696458809</v>
       </c>
       <c r="H21">
-        <v>13.65781932200749</v>
+        <v>8.091598422197126</v>
       </c>
       <c r="I21">
-        <v>20.8880188795294</v>
+        <v>11.06303117554447</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.993811924897473</v>
+        <v>6.708964176125813</v>
       </c>
       <c r="M21">
-        <v>15.03056478141059</v>
+        <v>15.63067963082863</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.59215755399166</v>
+        <v>13.90304540695096</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.05401218261721</v>
+        <v>28.69734424921119</v>
       </c>
       <c r="C22">
-        <v>12.92767832264986</v>
+        <v>17.48523748367877</v>
       </c>
       <c r="D22">
-        <v>6.675024620181423</v>
+        <v>9.616473055504818</v>
       </c>
       <c r="E22">
-        <v>12.31947092923945</v>
+        <v>6.749522171112042</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.02117313856916</v>
+        <v>24.63324005645456</v>
       </c>
       <c r="H22">
-        <v>13.62212263366064</v>
+        <v>8.095909449013391</v>
       </c>
       <c r="I22">
-        <v>20.78978024996395</v>
+        <v>10.87375882834552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.994747288433189</v>
+        <v>6.798838350934163</v>
       </c>
       <c r="M22">
-        <v>15.16165651403867</v>
+        <v>16.16644423363746</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.54492074840686</v>
+        <v>14.06034507318211</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.80779592250748</v>
+        <v>28.17311638094528</v>
       </c>
       <c r="C23">
-        <v>12.8194557532185</v>
+        <v>17.23822878143229</v>
       </c>
       <c r="D23">
-        <v>6.617356772000178</v>
+        <v>9.430587353487304</v>
       </c>
       <c r="E23">
-        <v>12.33932967203756</v>
+        <v>6.809269629466468</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.01813424170082</v>
+        <v>24.28740764411029</v>
       </c>
       <c r="H23">
-        <v>13.64094398201899</v>
+        <v>8.092683550064576</v>
       </c>
       <c r="I23">
-        <v>20.84179393865952</v>
+        <v>10.97294848692725</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.994135946087431</v>
+        <v>6.750704245243247</v>
       </c>
       <c r="M23">
-        <v>15.09173389076072</v>
+        <v>15.88251190322259</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.56964144333812</v>
+        <v>13.97449744710411</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.84216158756414</v>
+        <v>26.10064880541247</v>
       </c>
       <c r="C24">
-        <v>12.39968389374963</v>
+        <v>16.27202583098278</v>
       </c>
       <c r="D24">
-        <v>6.397017784646511</v>
+        <v>8.698778964230156</v>
       </c>
       <c r="E24">
-        <v>12.41743969041559</v>
+        <v>7.039399469564235</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.02854793556544</v>
+        <v>23.02708362774332</v>
       </c>
       <c r="H24">
-        <v>13.71728753945575</v>
+        <v>8.100181758097122</v>
       </c>
       <c r="I24">
-        <v>21.0479677663187</v>
+        <v>11.38675571646482</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.994288830992563</v>
+        <v>6.572122376595665</v>
       </c>
       <c r="M24">
-        <v>14.82614062935999</v>
+        <v>14.76271772867844</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.67401224047697</v>
+        <v>13.69026379075144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.73345449636791</v>
+        <v>23.67644774596909</v>
       </c>
       <c r="C25">
-        <v>11.92754522849003</v>
+        <v>15.16624365499487</v>
       </c>
       <c r="D25">
-        <v>6.156713297433891</v>
+        <v>7.848598436685253</v>
       </c>
       <c r="E25">
-        <v>12.50792642438084</v>
+        <v>7.296424948249289</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.08628510623515</v>
+        <v>21.77733738088204</v>
       </c>
       <c r="H25">
-        <v>13.8104077295232</v>
+        <v>8.146582783948517</v>
       </c>
       <c r="I25">
-        <v>21.28994174822689</v>
+        <v>11.902940894101</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.999756655448856</v>
+        <v>6.387829439295241</v>
       </c>
       <c r="M25">
-        <v>14.53918535950729</v>
+        <v>13.45896357010796</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.80935142295522</v>
+        <v>13.46615996515548</v>
       </c>
     </row>
   </sheetData>
